--- a/docs/CodeSystem-BRImunobiologico.xlsx
+++ b/docs/CodeSystem-BRImunobiologico.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="386">
   <si>
     <t>Property</t>
   </si>
@@ -1042,10 +1042,10 @@
     <t>100</t>
   </si>
   <si>
-    <t>VVBN</t>
-  </si>
-  <si>
-    <t>Vacina Varíola Bavarian Nordic</t>
+    <t>VVS</t>
+  </si>
+  <si>
+    <t>Vacina Varíola Símia (Atenuada)</t>
   </si>
   <si>
     <t>101</t>
@@ -1154,6 +1154,24 @@
   </si>
   <si>
     <t>Vacina Covid-19-recombinante, Serum/Zalika</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>CHIKUNGUNYA</t>
+  </si>
+  <si>
+    <t>Vacina Chikungunya (recombinante e atenuada)</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>COVID-19 SINOPHARM</t>
+  </si>
+  <si>
+    <t>Vacina Covid-19-inativada, Sinopharm</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3091,6 +3109,34 @@
         <v>379</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="D114" t="s" s="2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="D115" t="s" s="2">
+        <v>385</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
